--- a/Posner_cueing_solution_GroupB/Posner_cueing.xlsx
+++ b/Posner_cueing_solution_GroupB/Posner_cueing.xlsx
@@ -143,7 +143,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -176,7 +176,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
@@ -193,7 +193,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>5</v>
@@ -210,7 +210,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>5</v>
@@ -227,7 +227,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>5</v>
@@ -244,7 +244,7 @@
         <v>-90</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-7</v>
+        <v>-300</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>6</v>
@@ -261,7 +261,7 @@
         <v>-90</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-7</v>
+        <v>-300</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>6</v>
@@ -278,7 +278,7 @@
         <v>-90</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-7</v>
+        <v>-300</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>6</v>
@@ -295,7 +295,7 @@
         <v>-90</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>-7</v>
+        <v>-300</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>6</v>
@@ -312,7 +312,7 @@
         <v>-90</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>7</v>
+        <v>-300</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>5</v>
@@ -329,7 +329,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>-7</v>
+        <v>-300</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>6</v>
@@ -343,10 +343,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-7</v>
+        <v>-300</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>7</v>
@@ -360,10 +360,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-7</v>
+        <v>300</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>7</v>
@@ -377,10 +377,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>7</v>
+        <v>-300</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>7</v>
@@ -394,10 +394,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>7</v>
